--- a/data/raw/5-lions-megaways.xlsx
+++ b/data/raw/5-lions-megaways.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,9 +496,33 @@
         <v>2025-08-12 19:34:17.961</v>
       </c>
     </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>5 Lions Megaways</v>
+      </c>
+      <c r="B6" t="str" xml:space="preserve">
+        <v xml:space="preserve">24H
+66.17%</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Week
+87.62%</v>
+      </c>
+      <c r="D6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Month
+92.75%</v>
+      </c>
+      <c r="E6" t="str" xml:space="preserve">
+        <v xml:space="preserve">RTP
+96.5%</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-08-12 19:52:32.683</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>